--- a/マトリクス表（機能要件）.xlsx
+++ b/マトリクス表（機能要件）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vf1ma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64659124-545F-4AF9-97A7-E6403F4BA558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DCED35-9958-4794-839D-1732F97B3902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2595" yWindow="540" windowWidth="21600" windowHeight="14325" xr2:uid="{188915BA-380D-4B1A-A7BA-C88354DBAED7}"/>
   </bookViews>
@@ -454,57 +454,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,345 +836,345 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37170CB9-DEB7-46CB-993C-D8D252730CB6}">
   <dimension ref="B1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
+    <row r="3" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" ht="49.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="2:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" ht="49.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" ht="49.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="5">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="5">
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="5">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="8">
         <v>16</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="12">
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/マトリクス表（機能要件）.xlsx
+++ b/マトリクス表（機能要件）.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vf1ma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DCED35-9958-4794-839D-1732F97B3902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47C0C9A-0E29-446B-A118-5FEF1A95321E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="540" windowWidth="21600" windowHeight="14325" xr2:uid="{188915BA-380D-4B1A-A7BA-C88354DBAED7}"/>
+    <workbookView xWindow="7725" yWindow="2820" windowWidth="21600" windowHeight="14325" xr2:uid="{188915BA-380D-4B1A-A7BA-C88354DBAED7}"/>
   </bookViews>
   <sheets>
-    <sheet name="マトリクス表（要件）" sheetId="1" r:id="rId1"/>
+    <sheet name="マトリクス表（機能要件）" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -66,43 +66,19 @@
 ・ユーザパスワード</t>
   </si>
   <si>
-    <t>・会員
-・システム管理者</t>
-  </si>
-  <si>
     <t>ログアウト</t>
   </si>
   <si>
     <t>ログアウトを行う。</t>
   </si>
   <si>
-    <t>パスワードリセット</t>
-  </si>
-  <si>
-    <t>登録ユーザーのパスワードリセットを行う。</t>
-  </si>
-  <si>
     <t>ユーザー登録</t>
   </si>
   <si>
     <t>ユーザー情報の登録を行う。</t>
   </si>
   <si>
-    <t>・ユーザID
-・ユーザパスワード
-・ユーザ名</t>
-  </si>
-  <si>
-    <t>退会</t>
-  </si>
-  <si>
     <t>ユーザー情報の削除を行う。</t>
-  </si>
-  <si>
-    <t>全ユーザ一覧</t>
-  </si>
-  <si>
-    <t>登録済みのユーザを表示する。</t>
   </si>
   <si>
     <t>・ユーザID</t>
@@ -178,17 +154,6 @@
     <t>収支目標の変更をする。</t>
   </si>
   <si>
-    <t>目標達成状況判定</t>
-  </si>
-  <si>
-    <t>収支の金額と目標収支の金額を比較する。</t>
-  </si>
-  <si>
-    <t>・収支金額
-・収入金額
-・支出金額</t>
-  </si>
-  <si>
     <t>・支出金額
 ・支出区分名
 ・支出内容
@@ -196,63 +161,310 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>会員からの問い合わせフォーム</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みのユーザを表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ユーザ一覧表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・会員
+・管理者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・管理者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>問い合わせ</t>
+      <t>・ユーザ</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・ユーザパスワード</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・ユーザ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・ユーザパスワード
+・ユーザ名
+・ユーザメールアドレス</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・ユーザ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・ユーザパスワード
+・ユーザメールアドレス</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各会員の問い合わせを表示（会員ごとに一覧は変更）</t>
+    <rPh sb="0" eb="3">
+      <t>カクカイイン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザID
+・問い合わせ内容
+・問い合わせ回答</t>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ一覧表示会員版</t>
     <rPh sb="0" eb="1">
       <t>ト</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・問い合わせ内容
-・問い合わせ回答</t>
-    <rPh sb="1" eb="2">
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ一覧表示管理者版</t>
+    <rPh sb="0" eb="1">
       <t>ト</t>
     </rPh>
-    <rPh sb="3" eb="4">
+    <rPh sb="2" eb="3">
       <t>ア</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・会員</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ登録</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ変更</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザID
+・問い合わせ変更</t>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="12" eb="13">
       <t>ア</t>
     </rPh>
-    <rPh sb="15" eb="17">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・会員
-・システム管理者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会員からの問い合わせフォーム</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・会員
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードリセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ユーザーのパスワードリセットを行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントの削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標達成状況判定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収支の金額と目標収支の金額を比較する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・収支金額
+・収入金額
+・支出金額</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・収支金額</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -260,7 +472,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +508,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -311,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -424,19 +643,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -454,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,20 +691,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,17 +1043,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37170CB9-DEB7-46CB-993C-D8D252730CB6}">
-  <dimension ref="B1:G19"/>
+  <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
   </cols>
@@ -880,11 +1090,11 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
+      <c r="E3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -893,88 +1103,88 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>9</v>
+      <c r="F4" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" ht="37.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
+      <c r="C5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" ht="61.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" ht="49.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
+      <c r="C7" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
+      <c r="C8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -983,16 +1193,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -1001,16 +1211,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -1019,16 +1229,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -1037,16 +1247,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -1055,16 +1265,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -1073,16 +1283,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -1091,16 +1301,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -1109,16 +1319,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -1127,54 +1337,108 @@
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="8">
         <v>16</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="C18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="2:7" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="5">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="5">
+        <v>18</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="2:7" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="5">
+        <v>19</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="10">
-        <v>17</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="E21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="2:7" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="5">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="14"/>
+      <c r="D22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/マトリクス表（機能要件）.xlsx
+++ b/マトリクス表（機能要件）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vf1ma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47C0C9A-0E29-446B-A118-5FEF1A95321E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09BB9B3-25E1-49EF-9798-BCEBB7A42F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7725" yWindow="2820" windowWidth="21600" windowHeight="14325" xr2:uid="{188915BA-380D-4B1A-A7BA-C88354DBAED7}"/>
+    <workbookView xWindow="6105" yWindow="1620" windowWidth="21600" windowHeight="14325" xr2:uid="{188915BA-380D-4B1A-A7BA-C88354DBAED7}"/>
   </bookViews>
   <sheets>
     <sheet name="マトリクス表（機能要件）" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>ユーザー情報の削除を行う。</t>
-  </si>
-  <si>
-    <t>・ユーザID</t>
   </si>
   <si>
     <t>収入登録</t>
@@ -108,9 +105,6 @@
     <t>収入一覧表示</t>
   </si>
   <si>
-    <t>登録した収入の表示を行う。</t>
-  </si>
-  <si>
     <t>支入一覧表示</t>
   </si>
   <si>
@@ -170,17 +164,6 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録済みのユーザを表示する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全ユーザ一覧表示</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -467,12 +450,117 @@
     <t>・収支金額</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・ユーザ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・権限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・ユーザ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・ユーザパスワード
+・ユーザ名
+・ユーザメールアドレス
+・権限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <rPh sb="36" eb="38">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ一権限変更</t>
+    <rPh sb="4" eb="8">
+      <t>ケンゲンヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みの全ユーザ一覧表示し権限変更を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録した収入の表示を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +602,12 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1046,7 +1140,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1091,10 +1185,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1112,7 +1206,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -1121,20 +1215,20 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="2:7" ht="61.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" ht="62.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -1145,10 +1239,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -1157,34 +1251,34 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
+        <v>61</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -1193,16 +1287,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -1211,16 +1305,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -1229,16 +1323,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -1247,16 +1341,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -1265,16 +1359,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -1283,16 +1377,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -1301,16 +1395,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -1319,16 +1413,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -1337,16 +1431,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -1355,16 +1449,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="9"/>
     </row>
@@ -1373,16 +1467,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G19" s="11"/>
     </row>
@@ -1391,16 +1485,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -1409,16 +1503,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -1427,16 +1521,16 @@
         <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G22" s="11"/>
     </row>
